--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>-0.9253333333333309</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.5653333333333315</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.65</v>
+        <v>-0.62</v>
       </c>
     </row>
   </sheetData>
@@ -10555,7 +10557,9 @@
       <c r="C116" t="n">
         <v>-0.9579999999999984</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.6479999999999997</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10566,7 +10570,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.8</v>
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -15681,7 +15685,9 @@
       <c r="C116" t="n">
         <v>0.2549999999999955</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.02166666666666472</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15692,7 +15698,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -20807,7 +20813,9 @@
       <c r="C116" t="n">
         <v>0.6706666666666656</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.6439999999999984</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20818,7 +20826,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -25839,7 +25847,9 @@
       <c r="C116" t="n">
         <v>2.650000000000002</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.423333333333332</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -25850,7 +25860,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>3.53</v>
+        <v>2.49</v>
       </c>
     </row>
   </sheetData>
@@ -30965,7 +30975,9 @@
       <c r="C116" t="n">
         <v>1.715666666666667</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>-0.08766666666666367</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -30976,7 +30988,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.03</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -36091,7 +36103,9 @@
       <c r="C116" t="n">
         <v>2.72133333333333</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>1.341333333333331</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36102,7 +36116,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -41217,7 +41231,9 @@
       <c r="C116" t="n">
         <v>0.8756190476190474</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.1551428571428574</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41228,7 +41244,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -46343,7 +46359,9 @@
       <c r="C116" t="n">
         <v>0.88</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.16</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46354,7 +46372,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>-0.5653333333333315</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.934666666666665</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.62</v>
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -10560,7 +10562,9 @@
       <c r="D116" t="n">
         <v>-0.6479999999999997</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.4686666666666603</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10570,7 +10574,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.75</v>
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -15688,7 +15692,9 @@
       <c r="D116" t="n">
         <v>-0.02166666666666472</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.7116666666666625</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -15698,7 +15704,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -20816,7 +20822,9 @@
       <c r="D116" t="n">
         <v>0.6439999999999984</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.7339999999999982</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -25850,7 +25858,9 @@
       <c r="D116" t="n">
         <v>0.423333333333332</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>1.286666666666665</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -25860,7 +25870,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.49</v>
+        <v>2.19</v>
       </c>
     </row>
   </sheetData>
@@ -30978,7 +30988,9 @@
       <c r="D116" t="n">
         <v>-0.08766666666666367</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.1623333333333292</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -30988,7 +31000,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -36106,7 +36118,9 @@
       <c r="D116" t="n">
         <v>1.341333333333331</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.9180000000000028</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36116,7 +36130,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
@@ -41234,7 +41248,9 @@
       <c r="D116" t="n">
         <v>0.1551428571428574</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.7451428571428548</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41244,7 +41260,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -46362,7 +46378,9 @@
       <c r="D116" t="n">
         <v>0.16</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>0.75</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46372,7 +46390,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5515,8 +5515,12 @@
       <c r="E116" t="n">
         <v>0.934666666666665</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>0.9713333333333338</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.6446666666666676</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5524,7 +5528,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.23</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -10565,8 +10569,12 @@
       <c r="E116" t="n">
         <v>0.4686666666666603</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.891999999999999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.675333333333333</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -10574,7 +10582,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>-0.44</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -15695,8 +15703,12 @@
       <c r="E116" t="n">
         <v>0.7116666666666625</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.681666666666665</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.431666666666668</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -15704,7 +15716,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.42</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -20825,8 +20837,12 @@
       <c r="E116" t="n">
         <v>0.7339999999999982</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.100666666666667</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.784666666666666</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -20834,7 +20850,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -25861,8 +25877,12 @@
       <c r="E116" t="n">
         <v>1.286666666666665</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.306666666666668</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.973333333333333</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -25870,7 +25890,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.19</v>
+        <v>2.01</v>
       </c>
     </row>
   </sheetData>
@@ -30991,8 +31011,12 @@
       <c r="E116" t="n">
         <v>0.1623333333333292</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.495666666666667</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9190000000000005</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -31000,7 +31024,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -36121,8 +36145,12 @@
       <c r="E116" t="n">
         <v>0.9180000000000028</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2.311333333333334</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.354666666666667</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -36130,7 +36158,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>
@@ -41251,8 +41279,12 @@
       <c r="E116" t="n">
         <v>0.7451428571428548</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.537047619047619</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.397619047619048</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -41260,7 +41292,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -46381,8 +46413,12 @@
       <c r="E116" t="n">
         <v>0.75</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.4</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -46390,7 +46426,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5521,14 +5521,16 @@
       <c r="G116" t="n">
         <v>0.6446666666666676</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.5513333333333303</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -10575,14 +10577,16 @@
       <c r="G116" t="n">
         <v>1.675333333333333</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.592000000000004</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -15709,14 +15713,16 @@
       <c r="G116" t="n">
         <v>1.431666666666668</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>0.9990000000000023</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -20843,14 +20849,16 @@
       <c r="G116" t="n">
         <v>1.784666666666666</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.251333333333337</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -25881,16 +25889,18 @@
         <v>1.306666666666668</v>
       </c>
       <c r="G116" t="n">
-        <v>1.973333333333333</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.873333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.7833333333333332</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>
@@ -31017,14 +31027,16 @@
       <c r="G116" t="n">
         <v>0.9190000000000005</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.089</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -36151,14 +36163,16 @@
       <c r="G116" t="n">
         <v>1.354666666666667</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>1.244666666666665</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>
@@ -41283,16 +41297,18 @@
         <v>1.537047619047619</v>
       </c>
       <c r="G116" t="n">
-        <v>1.397619047619048</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.383333333333334</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.072952380952382</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
@@ -46417,16 +46433,18 @@
         <v>1.54</v>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>1.38</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.07</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>0.5513333333333303</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.2530000000000001</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -10580,13 +10582,15 @@
       <c r="H116" t="n">
         <v>1.592000000000004</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.3113333333333319</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -15716,13 +15720,15 @@
       <c r="H116" t="n">
         <v>0.9990000000000023</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.8683333333333358</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -20852,13 +20858,15 @@
       <c r="H116" t="n">
         <v>1.251333333333337</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.5086666666666684</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -25894,13 +25902,15 @@
       <c r="H116" t="n">
         <v>0.7833333333333332</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.1366666666666649</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
@@ -31030,13 +31040,15 @@
       <c r="H116" t="n">
         <v>1.089</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.2056666666666658</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -36166,13 +36178,15 @@
       <c r="H116" t="n">
         <v>1.244666666666665</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.5213333333333328</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
@@ -41302,13 +41316,15 @@
       <c r="H116" t="n">
         <v>1.072952380952382</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.1930000000000004</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.96</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -46438,13 +46454,15 @@
       <c r="H116" t="n">
         <v>1.07</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>-0.19</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>-0.2530000000000001</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.157</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
@@ -10585,12 +10587,14 @@
       <c r="I116" t="n">
         <v>-0.3113333333333319</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.148666666666665</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -15723,12 +15727,14 @@
       <c r="I116" t="n">
         <v>-0.8683333333333358</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.876000000000003</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -20861,12 +20867,14 @@
       <c r="I116" t="n">
         <v>-0.5086666666666684</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.014666666666665</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -25905,12 +25913,14 @@
       <c r="I116" t="n">
         <v>-0.1366666666666649</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.040000000000003</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
@@ -31043,12 +31053,14 @@
       <c r="I116" t="n">
         <v>0.2056666666666658</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.535666666666671</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -36181,12 +36193,14 @@
       <c r="I116" t="n">
         <v>0.5213333333333328</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.680666666666665</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>
@@ -41319,12 +41333,14 @@
       <c r="I116" t="n">
         <v>-0.1930000000000004</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.20752380952381</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -46457,12 +46473,14 @@
       <c r="I116" t="n">
         <v>-0.19</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.21</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5528,13 +5528,15 @@
         <v>-0.2530000000000001</v>
       </c>
       <c r="J116" t="n">
-        <v>1.157</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>1.057000000000002</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.8336666666666659</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -10590,11 +10592,13 @@
       <c r="J116" t="n">
         <v>1.148666666666665</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.7986666666666693</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -15730,11 +15734,13 @@
       <c r="J116" t="n">
         <v>0.876000000000003</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.5459999999999994</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -20870,11 +20876,13 @@
       <c r="J116" t="n">
         <v>1.014666666666665</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.4013333333333335</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -25916,11 +25924,13 @@
       <c r="J116" t="n">
         <v>1.040000000000003</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.2333333333333343</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -31056,7 +31066,9 @@
       <c r="J116" t="n">
         <v>1.535666666666671</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.7923333333333318</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
@@ -36196,11 +36208,13 @@
       <c r="J116" t="n">
         <v>1.680666666666665</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.793999999999999</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
@@ -41334,13 +41348,15 @@
         <v>-0.1930000000000004</v>
       </c>
       <c r="J116" t="n">
-        <v>1.20752380952381</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>1.193238095238096</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.7713333333333333</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -46474,13 +46490,15 @@
         <v>-0.19</v>
       </c>
       <c r="J116" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>1.19</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.77</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>0.8336666666666659</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.580333333333332</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -10595,10 +10597,12 @@
       <c r="K116" t="n">
         <v>0.7986666666666693</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.7906666666666595</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -15737,10 +15741,12 @@
       <c r="K116" t="n">
         <v>0.5459999999999994</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.09266666666666623</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -20879,10 +20885,12 @@
       <c r="K116" t="n">
         <v>0.4013333333333335</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.4913333333333334</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -25927,10 +25935,12 @@
       <c r="K116" t="n">
         <v>0.2333333333333343</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.8499999999999979</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -31069,10 +31079,12 @@
       <c r="K116" t="n">
         <v>0.7923333333333318</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.1056666666666679</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -36211,10 +36223,12 @@
       <c r="K116" t="n">
         <v>1.793999999999999</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>-0.3893333333333366</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -41353,10 +41367,12 @@
       <c r="K116" t="n">
         <v>0.7713333333333333</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.3601904761904743</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -46495,10 +46511,12 @@
       <c r="K116" t="n">
         <v>0.77</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.36</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,10 +5536,30 @@
       <c r="L116" t="n">
         <v>0.580333333333332</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.8803333333333399</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.31</v>
-      </c>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5552,7 +5572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10600,10 +10620,30 @@
       <c r="L116" t="n">
         <v>0.7906666666666595</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.420666666666666</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.53</v>
-      </c>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10616,7 +10656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15744,10 +15784,30 @@
       <c r="L116" t="n">
         <v>0.09266666666666623</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.1726666666666645</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.59</v>
-      </c>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15760,7 +15820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20888,10 +20948,30 @@
       <c r="L116" t="n">
         <v>0.4913333333333334</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.197666666666667</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.77</v>
-      </c>
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20904,7 +20984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25938,10 +26018,30 @@
       <c r="L116" t="n">
         <v>0.8499999999999979</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.3966666666666683</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.34</v>
-      </c>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25954,7 +26054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31082,10 +31182,30 @@
       <c r="L116" t="n">
         <v>0.1056666666666679</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.039000000000001</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31098,7 +31218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36226,10 +36346,30 @@
       <c r="L116" t="n">
         <v>-0.3893333333333366</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.7439999999999998</v>
+      </c>
       <c r="N116" t="n">
-        <v>1.34</v>
-      </c>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36242,7 +36382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41370,10 +41510,30 @@
       <c r="L116" t="n">
         <v>0.3601904761904743</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.8358571428571437</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41386,7 +41546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46514,10 +46674,30 @@
       <c r="L116" t="n">
         <v>0.36</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0.84</v>
+      </c>
       <c r="N116" t="n">
-        <v>0.8</v>
-      </c>
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.831333333333333</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10631,7 +10635,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.862000000000002</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10643,7 +10649,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15795,7 +15803,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.845000000000002</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15807,7 +15817,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20959,7 +20971,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.480666666666668</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -20971,7 +20985,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26029,7 +26045,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.100000000000005</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26041,7 +26059,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31193,7 +31213,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.645666666666667</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31205,7 +31227,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36357,7 +36381,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.40133333333333</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36369,7 +36395,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41521,7 +41549,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.595142857142858</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41533,7 +41563,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46685,7 +46717,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1.6</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -46697,7 +46731,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>1.831333333333333</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.4746666666666677</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.83</v>
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
@@ -10638,7 +10640,9 @@
       <c r="B117" t="n">
         <v>1.862000000000002</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.642000000000003</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10650,7 +10654,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -15806,7 +15810,9 @@
       <c r="B117" t="n">
         <v>1.845000000000002</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.04500000000000171</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15818,7 +15824,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.85</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -20974,7 +20980,9 @@
       <c r="B117" t="n">
         <v>1.480666666666668</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.07066666666666777</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -20986,7 +20994,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.48</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -26048,7 +26056,9 @@
       <c r="B117" t="n">
         <v>1.100000000000005</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>-0.6499999999999986</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26060,7 +26070,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.1</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -31216,7 +31226,9 @@
       <c r="B117" t="n">
         <v>1.645666666666667</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.2156666666666673</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31228,7 +31240,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.65</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -36384,7 +36396,9 @@
       <c r="B117" t="n">
         <v>1.40133333333333</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>1.121333333333332</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36396,7 +36410,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -41552,7 +41566,9 @@
       <c r="B117" t="n">
         <v>1.595142857142858</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.261333333333334</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41564,7 +41580,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.6</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -46720,7 +46736,9 @@
       <c r="B117" t="n">
         <v>1.6</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.26</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -46732,7 +46750,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.6</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>0.4746666666666677</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.165333333333333</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.15</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -10643,7 +10645,9 @@
       <c r="C117" t="n">
         <v>0.642000000000003</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.2480000000000011</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10654,7 +10658,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -15813,7 +15817,9 @@
       <c r="C117" t="n">
         <v>-0.04500000000000171</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.5216666666666647</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15824,7 +15830,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -20983,7 +20989,9 @@
       <c r="C117" t="n">
         <v>0.07066666666666777</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.3560000000000016</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -20994,7 +21002,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -26059,7 +26067,9 @@
       <c r="C117" t="n">
         <v>-0.6499999999999986</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.176666666666666</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26070,7 +26080,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.23</v>
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -31229,7 +31239,9 @@
       <c r="C117" t="n">
         <v>0.2156666666666673</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-1.487666666666662</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31240,7 +31252,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.93</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -36399,7 +36411,9 @@
       <c r="C117" t="n">
         <v>1.121333333333332</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.7586666666666666</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36410,7 +36424,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>1.26</v>
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
@@ -41569,7 +41583,9 @@
       <c r="C117" t="n">
         <v>0.261333333333334</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.8162857142857136</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41580,7 +41596,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.93</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -46739,7 +46755,9 @@
       <c r="C117" t="n">
         <v>0.26</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>-0.82</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -46750,7 +46768,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.93</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>-1.165333333333333</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.2346666666666657</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -10511,7 +10513,7 @@
         <v>1.162000000000003</v>
       </c>
       <c r="C114" t="n">
-        <v>1.142000000000003</v>
+        <v>1.042000000000002</v>
       </c>
       <c r="D114" t="n">
         <v>0.4519999999999982</v>
@@ -10544,7 +10546,7 @@
         <v>0.9206666666666656</v>
       </c>
       <c r="N114" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="115">
@@ -10648,7 +10650,9 @@
       <c r="D117" t="n">
         <v>-0.2480000000000011</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>1.16866666666666</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10658,7 +10662,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -15820,7 +15824,9 @@
       <c r="D117" t="n">
         <v>-0.5216666666666647</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.5116666666666632</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15830,7 +15836,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -20949,7 +20955,7 @@
         <v>0.6439999999999984</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7339999999999982</v>
+        <v>0.8339999999999961</v>
       </c>
       <c r="F116" t="n">
         <v>1.100666666666667</v>
@@ -20992,7 +20998,9 @@
       <c r="D117" t="n">
         <v>-0.3560000000000016</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.2339999999999982</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21002,7 +21010,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -26070,7 +26078,9 @@
       <c r="D117" t="n">
         <v>-1.176666666666666</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>-0.01333333333333186</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26080,7 +26090,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.24</v>
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -31242,7 +31252,9 @@
       <c r="D117" t="n">
         <v>-1.487666666666662</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.9623333333333299</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31252,7 +31264,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -36414,7 +36426,9 @@
       <c r="D117" t="n">
         <v>-0.7586666666666666</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.8180000000000014</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36424,7 +36438,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -41449,7 +41463,7 @@
         <v>0.4094285714285719</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3613333333333334</v>
+        <v>0.3470476190476189</v>
       </c>
       <c r="D114" t="n">
         <v>0.4265714285714287</v>
@@ -41543,7 +41557,7 @@
         <v>0.1551428571428574</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7451428571428548</v>
+        <v>0.7594285714285688</v>
       </c>
       <c r="F116" t="n">
         <v>1.537047619047619</v>
@@ -41586,7 +41600,9 @@
       <c r="D117" t="n">
         <v>-0.8162857142857136</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.5594285714285695</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41596,7 +41612,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -46621,7 +46637,7 @@
         <v>0.41</v>
       </c>
       <c r="C114" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D114" t="n">
         <v>0.43</v>
@@ -46715,7 +46731,7 @@
         <v>0.16</v>
       </c>
       <c r="E116" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="F116" t="n">
         <v>1.54</v>
@@ -46758,7 +46774,9 @@
       <c r="D117" t="n">
         <v>-0.82</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -46768,7 +46786,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>0.2346666666666657</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.628666666666664</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -10653,7 +10655,9 @@
       <c r="E117" t="n">
         <v>1.16866666666666</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.7079999999999984</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10662,7 +10666,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -15827,7 +15831,9 @@
       <c r="E117" t="n">
         <v>0.5116666666666632</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.9183333333333348</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15836,7 +15842,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.45</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -21001,7 +21007,9 @@
       <c r="E117" t="n">
         <v>0.2339999999999982</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.8993333333333347</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21010,7 +21018,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -26081,7 +26089,9 @@
       <c r="E117" t="n">
         <v>-0.01333333333333186</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.4933333333333323</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26090,7 +26100,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.18</v>
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -31255,7 +31265,9 @@
       <c r="E117" t="n">
         <v>0.9623333333333299</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-1.704333333333333</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31264,7 +31276,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -36429,7 +36441,9 @@
       <c r="E117" t="n">
         <v>0.8180000000000014</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.8886666666666656</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36438,7 +36452,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.65</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -41603,7 +41617,9 @@
       <c r="E117" t="n">
         <v>0.5594285714285695</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.8915238095238089</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41612,7 +41628,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -46777,7 +46793,9 @@
       <c r="E117" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-0.89</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -46786,7 +46804,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>-0.628666666666664</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.244666666666665</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -10658,7 +10660,9 @@
       <c r="F117" t="n">
         <v>-0.7079999999999984</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.775333333333332</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10666,7 +10670,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -15834,7 +15838,9 @@
       <c r="F117" t="n">
         <v>-0.9183333333333348</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.831666666666667</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15842,7 +15848,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -21010,7 +21016,9 @@
       <c r="F117" t="n">
         <v>-0.8993333333333347</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.7846666666666664</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21018,7 +21026,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -26092,7 +26100,9 @@
       <c r="F117" t="n">
         <v>-0.4933333333333323</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.9733333333333327</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26100,7 +26110,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.25</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
@@ -31268,7 +31278,9 @@
       <c r="F117" t="n">
         <v>-1.704333333333333</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.6190000000000015</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31276,7 +31288,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -36444,7 +36456,9 @@
       <c r="F117" t="n">
         <v>-0.8886666666666656</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.6546666666666674</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36452,7 +36466,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -41620,7 +41634,9 @@
       <c r="F117" t="n">
         <v>-0.8915238095238089</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.9833333333333333</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41628,7 +41644,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -46796,7 +46812,9 @@
       <c r="F117" t="n">
         <v>-0.89</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>0.98</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -46804,7 +46822,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>1.244666666666665</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.6513333333333318</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -10663,14 +10665,16 @@
       <c r="G117" t="n">
         <v>1.775333333333332</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.292000000000005</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -15841,14 +15845,16 @@
       <c r="G117" t="n">
         <v>0.831666666666667</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.4990000000000023</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -21019,14 +21025,16 @@
       <c r="G117" t="n">
         <v>0.7846666666666664</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.8513333333333364</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -26103,14 +26111,16 @@
       <c r="G117" t="n">
         <v>0.9733333333333327</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>1.183333333333332</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>-0.04</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -31281,14 +31291,16 @@
       <c r="G117" t="n">
         <v>0.6190000000000015</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.2889999999999997</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -36459,14 +36471,16 @@
       <c r="G117" t="n">
         <v>0.6546666666666674</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.8446666666666651</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -41637,14 +41651,16 @@
       <c r="G117" t="n">
         <v>0.9833333333333333</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.8015238095238103</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -46815,14 +46831,16 @@
       <c r="G117" t="n">
         <v>0.98</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0.8</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMax_unrounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMax_rounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMax_unrounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMax_rounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>0.6513333333333318</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.046999999999999</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -10668,13 +10669,15 @@
       <c r="H117" t="n">
         <v>1.292000000000005</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.388666666666669</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -15848,13 +15851,15 @@
       <c r="H117" t="n">
         <v>0.4990000000000023</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.4316666666666649</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -21028,13 +21033,15 @@
       <c r="H117" t="n">
         <v>0.8513333333333364</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.6913333333333327</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -26114,13 +26121,15 @@
       <c r="H117" t="n">
         <v>1.183333333333332</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.7633333333333354</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -31294,13 +31303,15 @@
       <c r="H117" t="n">
         <v>0.2889999999999997</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.105666666666666</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -36474,13 +36485,15 @@
       <c r="H117" t="n">
         <v>0.8446666666666651</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.721333333333332</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -41654,13 +41667,15 @@
       <c r="H117" t="n">
         <v>0.8015238095238103</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.021285714285714</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -46834,13 +46849,15 @@
       <c r="H117" t="n">
         <v>0.8</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>1.046999999999999</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5570000000000022</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -10672,12 +10674,14 @@
       <c r="I117" t="n">
         <v>1.388666666666669</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5486666666666675</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -15854,12 +15858,14 @@
       <c r="I117" t="n">
         <v>0.4316666666666649</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.6760000000000037</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -21036,12 +21042,14 @@
       <c r="I117" t="n">
         <v>0.6913333333333327</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.114666666666666</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -26124,12 +26132,14 @@
       <c r="I117" t="n">
         <v>0.7633333333333354</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>-0.1599999999999984</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -31306,12 +31316,14 @@
       <c r="I117" t="n">
         <v>1.105666666666666</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.635666666666669</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -36488,12 +36500,14 @@
       <c r="I117" t="n">
         <v>1.721333333333332</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.580666666666666</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -41670,12 +41684,14 @@
       <c r="I117" t="n">
         <v>1.021285714285714</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.8503809523809538</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -46852,12 +46868,14 @@
       <c r="I117" t="n">
         <v>1.02</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.85</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>0.5570000000000022</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.233666666666668</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -10677,7 +10679,9 @@
       <c r="J117" t="n">
         <v>0.5486666666666675</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.8986666666666672</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
@@ -15861,11 +15865,13 @@
       <c r="J117" t="n">
         <v>0.6760000000000037</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.9459999999999997</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -21045,11 +21051,13 @@
       <c r="J117" t="n">
         <v>1.114666666666666</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>-0.1986666666666679</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -26135,11 +26143,13 @@
       <c r="J117" t="n">
         <v>-0.1599999999999984</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.9333333333333353</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -31319,11 +31329,13 @@
       <c r="J117" t="n">
         <v>1.635666666666669</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.6923333333333304</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -36503,11 +36515,13 @@
       <c r="J117" t="n">
         <v>1.580666666666666</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.4939999999999998</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -41687,11 +41701,13 @@
       <c r="J117" t="n">
         <v>0.8503809523809538</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.714190476190476</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -46871,11 +46887,13 @@
       <c r="J117" t="n">
         <v>0.85</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.71</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>

--- a/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Anomalies_TMax_unrounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,10 +5576,36 @@
       <c r="K117" t="n">
         <v>1.233666666666668</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.7803333333333278</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.480333333333341</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.03133333333332899</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +5619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10682,10 +10708,36 @@
       <c r="K117" t="n">
         <v>0.8986666666666672</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.190666666666669</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.820666666666661</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-2.637999999999998</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-2.64</v>
       </c>
     </row>
   </sheetData>
@@ -10699,7 +10751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15868,10 +15920,36 @@
       <c r="K117" t="n">
         <v>0.9459999999999997</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.192666666666668</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.6726666666666645</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.255000000000006</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.26</v>
       </c>
     </row>
   </sheetData>
@@ -15885,7 +15963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21054,10 +21132,36 @@
       <c r="K117" t="n">
         <v>-0.1986666666666679</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.6913333333333327</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2.097666666666669</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.519333333333332</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.52</v>
       </c>
     </row>
   </sheetData>
@@ -21071,7 +21175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26146,11 +26250,31 @@
       <c r="K117" t="n">
         <v>0.9333333333333336</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.4499999999999993</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26163,7 +26287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31332,10 +31456,36 @@
       <c r="K117" t="n">
         <v>0.6923333333333304</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.3056666666666707</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.539000000000001</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-2.754333333333335</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-2.75</v>
       </c>
     </row>
   </sheetData>
@@ -31349,7 +31499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36518,10 +36668,36 @@
       <c r="K117" t="n">
         <v>0.4940000000000033</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.6106666666666669</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.343999999999998</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.298666666666666</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.3</v>
       </c>
     </row>
   </sheetData>
@@ -36535,7 +36711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41704,10 +41880,36 @@
       <c r="K117" t="n">
         <v>0.7141904761904764</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.745904761904762</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.492388888888889</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.572333333333335</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.57</v>
       </c>
     </row>
   </sheetData>
@@ -41721,7 +41923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46890,10 +47092,36 @@
       <c r="K117" t="n">
         <v>0.71</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.49</v>
+      </c>
       <c r="N117" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>-1.57</v>
       </c>
     </row>
   </sheetData>
